--- a/Eclipse Settings/WheelSystem/PlanningReport/report_305941_60.xlsx
+++ b/Eclipse Settings/WheelSystem/PlanningReport/report_305941_60.xlsx
@@ -38,16 +38,16 @@
     <t>Comment</t>
   </si>
   <si>
+    <t>2017-04-17</t>
+  </si>
+  <si>
+    <t>The Toe Creep has violated the wheel alarm settings thresholds</t>
+  </si>
+  <si>
+    <t>2017-04-16</t>
+  </si>
+  <si>
     <t>2017-04-07</t>
-  </si>
-  <si>
-    <t>The Spread Rim has violated the wheel alarm settings thresholds</t>
-  </si>
-  <si>
-    <t>2017-04-12</t>
-  </si>
-  <si>
-    <t>The Toe Creep has violated the wheel alarm settings thresholds</t>
   </si>
   <si>
     <t>The Flange Height has violated the wheel alarm settings thresholds</t>
@@ -428,13 +428,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>13.56</v>
+        <v>7.0652</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -451,19 +451,19 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>7.0652</v>
+        <v>7.0026</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -480,13 +480,13 @@
         <v>7.1113</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -503,13 +503,13 @@
         <v>7.1056</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
